--- a/Processed Results/Nexus 5X/Gyroscope/Gyroscope - Raw.xlsx
+++ b/Processed Results/Nexus 5X/Gyroscope/Gyroscope - Raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Gyroscope\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Nexus 5X\Gyroscope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32342691-8514-4034-A763-07DC010F1E46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE0216F-F02E-4F89-A048-3B33FA416576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="9990" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="9990" windowHeight="9830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -356,8 +356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -369,152 +369,152 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>104.80438799999899</v>
+        <v>132.108192</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>103.53977999999999</v>
+        <v>134.26883999999899</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>101.800944</v>
+        <v>118.526975999999</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>101.95902</v>
+        <v>114.360012</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>102.433247999999</v>
+        <v>114.20568</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>100.53633600000001</v>
+        <v>114.823008</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>102.117096</v>
+        <v>114.668675999999</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>101.642867999999</v>
+        <v>114.97734</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>102.117096</v>
+        <v>115.13167199999999</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>101.484792</v>
+        <v>114.360012</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>102.433247999999</v>
+        <v>114.668675999999</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>103.22362800000001</v>
+        <v>115.90333200000001</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>103.53977999999999</v>
+        <v>114.668675999999</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>102.117096</v>
+        <v>117.909648</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>101.642867999999</v>
+        <v>114.360012</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>101.642867999999</v>
+        <v>114.668675999999</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>101.95902</v>
+        <v>114.360012</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>101.642867999999</v>
+        <v>113.89701599999999</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>101.800944</v>
+        <v>115.13167199999999</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>101.95902</v>
+        <v>114.823008</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>101.484792</v>
+        <v>114.668675999999</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>101.484792</v>
+        <v>115.286003999999</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>101.484792</v>
+        <v>115.440336</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>102.275172</v>
+        <v>114.360012</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>101.326716</v>
+        <v>114.051348</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>101.800944</v>
+        <v>114.668675999999</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>101.326716</v>
+        <v>113.742683999999</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>102.74939999999999</v>
+        <v>113.89701599999999</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>101.95902</v>
+        <v>114.51434399999999</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>101.642867999999</v>
+        <v>114.20568</v>
       </c>
     </row>
   </sheetData>
